--- a/datosC/General.xlsx
+++ b/datosC/General.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugog\OneDrive\Documentos\semestres\SeptimoSemestre\mineriaDatos\Proyecto\datosC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugog\OneDrive\Documentos\semestres\SeptimoSemestre\mineriaDatos\Proyecto\Analisis-de-Sentimientos\datosC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF7F5E-5C9F-4D82-B08C-313E850835C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD54EBB-F89B-491F-810D-E49811D29510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68C9EC01-A9DD-43EA-8777-D0BBC156323B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="96">
   <si>
     <t>Usuario</t>
   </si>
@@ -325,12 +325,6 @@
   </si>
   <si>
     <t>Santiago Taboada para jefe de gobierno</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>neutral</t>
   </si>
 </sst>
 </file>
@@ -711,7 +705,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -724,7 +718,7 @@
     <we:reference id="WA104379638" version="1.0.0.0" store="" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
-    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;Hoja1!N2\&quot;,\&quot;includeHeaders\&quot;:false}},\&quot;showOverwriteWarning\&quot;:false,\&quot;inputBindingsAddresses\&quot;:{\&quot;input1\&quot;:{\&quot;bindingAddress\&quot;:\&quot;Hoja1!B2:B254\&quot;,\&quot;hasHeaders\&quot;:false}}}]&quot;"/>
+    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true}]&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="UnnamedBinding_1_1712936848487" type="matrix" appref="{3A34F0A3-C52E-499A-B90C-569CB9BB692F}"/>
@@ -738,6 +732,7 @@
     <we:binding id="Hoja1!N2:O255" type="matrix" appref="{2E812E6A-455F-4146-B0DE-472D33FE1981}"/>
     <we:binding id="Hoja1!N2:O254" type="matrix" appref="{81936346-FE3D-427B-A32D-76EB0DFA0C55}"/>
     <we:binding id="UnnamedBinding_0_1712937368543" type="matrix" appref="{9EED0E09-5DDE-429F-A9EA-63E6E552F4BF}"/>
+    <we:binding id="UnnamedBinding_0_1714271752172" type="matrix" appref="{A104AC1D-FAB9-4E00-98B6-7415347C6C32}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -745,15 +740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CBC488-7307-490D-A3F9-5B78D424EA5A}">
-  <dimension ref="A1:O254"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F82" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="O255" sqref="N254:O255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,3350 +756,1916 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="N10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="N11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="N13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="N14" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="N15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="N16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="N17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="N19" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="N20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20">
-        <v>0.50305032730102495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="N21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21">
-        <v>0.70169597864151001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="N24" t="s">
-        <v>96</v>
-      </c>
-      <c r="O24">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="N25" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="N26" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="N27" t="s">
-        <v>96</v>
-      </c>
-      <c r="O27">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="N28" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="N29" t="s">
-        <v>96</v>
-      </c>
-      <c r="O29">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="N30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O30">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="N31" t="s">
-        <v>96</v>
-      </c>
-      <c r="O31">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="N32" t="s">
-        <v>96</v>
-      </c>
-      <c r="O32">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="N33" t="s">
-        <v>96</v>
-      </c>
-      <c r="O33">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="N34" t="s">
-        <v>96</v>
-      </c>
-      <c r="O34">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="N35" t="s">
-        <v>96</v>
-      </c>
-      <c r="O35">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="N36" t="s">
-        <v>96</v>
-      </c>
-      <c r="O36">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="N37" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="N38" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="N39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O39">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="N40" t="s">
-        <v>97</v>
-      </c>
-      <c r="O40">
-        <v>0.50305032730102495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="N41" t="s">
-        <v>96</v>
-      </c>
-      <c r="O41">
-        <v>0.70169597864151001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="N42" t="s">
-        <v>96</v>
-      </c>
-      <c r="O42">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="N43" t="s">
-        <v>96</v>
-      </c>
-      <c r="O43">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="N44" t="s">
-        <v>96</v>
-      </c>
-      <c r="O44">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="N45" t="s">
-        <v>96</v>
-      </c>
-      <c r="O45">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="N46" t="s">
-        <v>96</v>
-      </c>
-      <c r="O46">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="N47" t="s">
-        <v>96</v>
-      </c>
-      <c r="O47">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="N48" t="s">
-        <v>97</v>
-      </c>
-      <c r="O48">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="N49" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="N50" t="s">
-        <v>96</v>
-      </c>
-      <c r="O50">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="N51" t="s">
-        <v>96</v>
-      </c>
-      <c r="O51">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="N52" t="s">
-        <v>96</v>
-      </c>
-      <c r="O52">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
       </c>
-      <c r="N53" t="s">
-        <v>96</v>
-      </c>
-      <c r="O53">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="N54" t="s">
-        <v>96</v>
-      </c>
-      <c r="O54">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="N55" t="s">
-        <v>96</v>
-      </c>
-      <c r="O55">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>31</v>
       </c>
-      <c r="N56" t="s">
-        <v>96</v>
-      </c>
-      <c r="O56">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
       </c>
-      <c r="N57" t="s">
-        <v>96</v>
-      </c>
-      <c r="O57">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="N58" t="s">
-        <v>96</v>
-      </c>
-      <c r="O58">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
       </c>
-      <c r="N59" t="s">
-        <v>97</v>
-      </c>
-      <c r="O59">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="N60" t="s">
-        <v>97</v>
-      </c>
-      <c r="O60">
-        <v>0.50305032730102495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
       </c>
-      <c r="N61" t="s">
-        <v>96</v>
-      </c>
-      <c r="O61">
-        <v>0.70169597864151001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="N62" t="s">
-        <v>96</v>
-      </c>
-      <c r="O62">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="N63" t="s">
-        <v>96</v>
-      </c>
-      <c r="O63">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="N64" t="s">
-        <v>96</v>
-      </c>
-      <c r="O64">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="N65" t="s">
-        <v>96</v>
-      </c>
-      <c r="O65">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="N66" t="s">
-        <v>96</v>
-      </c>
-      <c r="O66">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="N67" t="s">
-        <v>96</v>
-      </c>
-      <c r="O67">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
-      <c r="N68" t="s">
-        <v>97</v>
-      </c>
-      <c r="O68">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
-      <c r="N69" t="s">
-        <v>96</v>
-      </c>
-      <c r="O69">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
-      <c r="N70" t="s">
-        <v>96</v>
-      </c>
-      <c r="O70">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="N71" t="s">
-        <v>96</v>
-      </c>
-      <c r="O71">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
-      <c r="N72" t="s">
-        <v>96</v>
-      </c>
-      <c r="O72">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
       </c>
-      <c r="N73" t="s">
-        <v>96</v>
-      </c>
-      <c r="O73">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
-      <c r="N74" t="s">
-        <v>96</v>
-      </c>
-      <c r="O74">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
       </c>
-      <c r="N75" t="s">
-        <v>96</v>
-      </c>
-      <c r="O75">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
       <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="N76" t="s">
-        <v>96</v>
-      </c>
-      <c r="O76">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
       <c r="B77" t="s">
         <v>33</v>
       </c>
-      <c r="N77" t="s">
-        <v>96</v>
-      </c>
-      <c r="O77">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
       </c>
-      <c r="N78" t="s">
-        <v>96</v>
-      </c>
-      <c r="O78">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
       </c>
-      <c r="N79" t="s">
-        <v>97</v>
-      </c>
-      <c r="O79">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
       <c r="B80" t="s">
         <v>39</v>
       </c>
-      <c r="N80" t="s">
-        <v>97</v>
-      </c>
-      <c r="O80">
-        <v>0.50305032730102495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>40</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
       </c>
-      <c r="N81" t="s">
-        <v>96</v>
-      </c>
-      <c r="O81">
-        <v>0.70169597864151001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="N82" t="s">
-        <v>96</v>
-      </c>
-      <c r="O82">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
       <c r="B83" t="s">
         <v>43</v>
       </c>
-      <c r="N83" t="s">
-        <v>96</v>
-      </c>
-      <c r="O83">
-        <v>0.68559747934341397</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
-      <c r="N84" t="s">
-        <v>96</v>
-      </c>
-      <c r="O84">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
-      <c r="N85" t="s">
-        <v>96</v>
-      </c>
-      <c r="O85">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
       <c r="B86" t="s">
         <v>45</v>
       </c>
-      <c r="N86" t="s">
-        <v>96</v>
-      </c>
-      <c r="O86">
-        <v>0.64360970258712802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="N87" t="s">
-        <v>96</v>
-      </c>
-      <c r="O87">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="N88" t="s">
-        <v>96</v>
-      </c>
-      <c r="O88">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>46</v>
       </c>
       <c r="B89" t="s">
         <v>47</v>
       </c>
-      <c r="N89" t="s">
-        <v>96</v>
-      </c>
-      <c r="O89">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="N90" t="s">
-        <v>96</v>
-      </c>
-      <c r="O90">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="N91" t="s">
-        <v>97</v>
-      </c>
-      <c r="O91">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>48</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
       </c>
-      <c r="N92" t="s">
-        <v>96</v>
-      </c>
-      <c r="O92">
-        <v>0.64132606983184803</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>18</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
       </c>
-      <c r="N93" t="s">
-        <v>96</v>
-      </c>
-      <c r="O93">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>50</v>
       </c>
       <c r="B94" t="s">
         <v>51</v>
       </c>
-      <c r="N94" t="s">
-        <v>97</v>
-      </c>
-      <c r="O94">
-        <v>0.54233384132385298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>52</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="N95" t="s">
-        <v>97</v>
-      </c>
-      <c r="O95">
-        <v>0.53331261873245195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="N96" t="s">
-        <v>96</v>
-      </c>
-      <c r="O96">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
       <c r="B97" t="s">
         <v>55</v>
       </c>
-      <c r="N97" t="s">
-        <v>96</v>
-      </c>
-      <c r="O97">
-        <v>0.60134857892990101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
       </c>
-      <c r="N98" t="s">
-        <v>96</v>
-      </c>
-      <c r="O98">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
-      <c r="N99" t="s">
-        <v>96</v>
-      </c>
-      <c r="O99">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
       </c>
-      <c r="N100" t="s">
-        <v>96</v>
-      </c>
-      <c r="O100">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>36</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
       </c>
-      <c r="N101" t="s">
-        <v>97</v>
-      </c>
-      <c r="O101">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
       </c>
-      <c r="N102" t="s">
-        <v>96</v>
-      </c>
-      <c r="O102">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
         <v>43</v>
       </c>
-      <c r="N103" t="s">
-        <v>96</v>
-      </c>
-      <c r="O103">
-        <v>0.68559747934341397</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
-      <c r="N104" t="s">
-        <v>96</v>
-      </c>
-      <c r="O104">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="N105" t="s">
-        <v>96</v>
-      </c>
-      <c r="O105">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>44</v>
       </c>
       <c r="B106" t="s">
         <v>45</v>
       </c>
-      <c r="N106" t="s">
-        <v>96</v>
-      </c>
-      <c r="O106">
-        <v>0.64360970258712802</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="N107" t="s">
-        <v>96</v>
-      </c>
-      <c r="O107">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
-      <c r="N108" t="s">
-        <v>96</v>
-      </c>
-      <c r="O108">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>46</v>
       </c>
       <c r="B109" t="s">
         <v>47</v>
       </c>
-      <c r="N109" t="s">
-        <v>96</v>
-      </c>
-      <c r="O109">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
       </c>
-      <c r="N110" t="s">
-        <v>96</v>
-      </c>
-      <c r="O110">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
-      <c r="N111" t="s">
-        <v>97</v>
-      </c>
-      <c r="O111">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>48</v>
       </c>
       <c r="B112" t="s">
         <v>49</v>
       </c>
-      <c r="N112" t="s">
-        <v>96</v>
-      </c>
-      <c r="O112">
-        <v>0.64132606983184803</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>18</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
       </c>
-      <c r="N113" t="s">
-        <v>96</v>
-      </c>
-      <c r="O113">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>50</v>
       </c>
       <c r="B114" t="s">
         <v>51</v>
       </c>
-      <c r="N114" t="s">
-        <v>97</v>
-      </c>
-      <c r="O114">
-        <v>0.54233384132385298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>52</v>
       </c>
       <c r="B115" t="s">
         <v>53</v>
       </c>
-      <c r="N115" t="s">
-        <v>97</v>
-      </c>
-      <c r="O115">
-        <v>0.53331261873245195</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
       </c>
-      <c r="N116" t="s">
-        <v>96</v>
-      </c>
-      <c r="O116">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>54</v>
       </c>
       <c r="B117" t="s">
         <v>55</v>
       </c>
-      <c r="N117" t="s">
-        <v>96</v>
-      </c>
-      <c r="O117">
-        <v>0.60134857892990101</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
       <c r="B118" t="s">
         <v>21</v>
       </c>
-      <c r="N118" t="s">
-        <v>96</v>
-      </c>
-      <c r="O118">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
       </c>
-      <c r="N119" t="s">
-        <v>96</v>
-      </c>
-      <c r="O119">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
       <c r="B120" t="s">
         <v>31</v>
       </c>
-      <c r="N120" t="s">
-        <v>96</v>
-      </c>
-      <c r="O120">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>36</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
       </c>
-      <c r="N121" t="s">
-        <v>97</v>
-      </c>
-      <c r="O121">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
-      <c r="N122" t="s">
-        <v>96</v>
-      </c>
-      <c r="O122">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>42</v>
       </c>
       <c r="B123" t="s">
         <v>43</v>
       </c>
-      <c r="N123" t="s">
-        <v>96</v>
-      </c>
-      <c r="O123">
-        <v>0.68559747934341397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
-      <c r="N124" t="s">
-        <v>96</v>
-      </c>
-      <c r="O124">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="N125" t="s">
-        <v>96</v>
-      </c>
-      <c r="O125">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>44</v>
       </c>
       <c r="B126" t="s">
         <v>45</v>
       </c>
-      <c r="N126" t="s">
-        <v>96</v>
-      </c>
-      <c r="O126">
-        <v>0.64360970258712802</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="N127" t="s">
-        <v>96</v>
-      </c>
-      <c r="O127">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
-      <c r="N128" t="s">
-        <v>96</v>
-      </c>
-      <c r="O128">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>46</v>
       </c>
       <c r="B129" t="s">
         <v>47</v>
       </c>
-      <c r="N129" t="s">
-        <v>96</v>
-      </c>
-      <c r="O129">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
       </c>
-      <c r="N130" t="s">
-        <v>96</v>
-      </c>
-      <c r="O130">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
-      <c r="N131" t="s">
-        <v>97</v>
-      </c>
-      <c r="O131">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>48</v>
       </c>
       <c r="B132" t="s">
         <v>49</v>
       </c>
-      <c r="N132" t="s">
-        <v>96</v>
-      </c>
-      <c r="O132">
-        <v>0.64132606983184803</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
       </c>
-      <c r="N133" t="s">
-        <v>96</v>
-      </c>
-      <c r="O133">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>50</v>
       </c>
       <c r="B134" t="s">
         <v>51</v>
       </c>
-      <c r="N134" t="s">
-        <v>97</v>
-      </c>
-      <c r="O134">
-        <v>0.54233384132385298</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>52</v>
       </c>
       <c r="B135" t="s">
         <v>53</v>
       </c>
-      <c r="N135" t="s">
-        <v>97</v>
-      </c>
-      <c r="O135">
-        <v>0.53331261873245195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
       </c>
-      <c r="N136" t="s">
-        <v>96</v>
-      </c>
-      <c r="O136">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>54</v>
       </c>
       <c r="B137" t="s">
         <v>55</v>
       </c>
-      <c r="N137" t="s">
-        <v>96</v>
-      </c>
-      <c r="O137">
-        <v>0.60134857892990101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
       <c r="B138" t="s">
         <v>21</v>
       </c>
-      <c r="N138" t="s">
-        <v>96</v>
-      </c>
-      <c r="O138">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>22</v>
       </c>
       <c r="B139" t="s">
         <v>23</v>
       </c>
-      <c r="N139" t="s">
-        <v>96</v>
-      </c>
-      <c r="O139">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
       </c>
-      <c r="N140" t="s">
-        <v>96</v>
-      </c>
-      <c r="O140">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>36</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
       </c>
-      <c r="N141" t="s">
-        <v>97</v>
-      </c>
-      <c r="O141">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
-      <c r="N142" t="s">
-        <v>96</v>
-      </c>
-      <c r="O142">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>42</v>
       </c>
       <c r="B143" t="s">
         <v>43</v>
       </c>
-      <c r="N143" t="s">
-        <v>96</v>
-      </c>
-      <c r="O143">
-        <v>0.68559747934341397</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
-      <c r="N144" t="s">
-        <v>96</v>
-      </c>
-      <c r="O144">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
-      <c r="N145" t="s">
-        <v>96</v>
-      </c>
-      <c r="O145">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>44</v>
       </c>
       <c r="B146" t="s">
         <v>45</v>
       </c>
-      <c r="N146" t="s">
-        <v>96</v>
-      </c>
-      <c r="O146">
-        <v>0.64360970258712802</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
-      <c r="N147" t="s">
-        <v>96</v>
-      </c>
-      <c r="O147">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
-      <c r="N148" t="s">
-        <v>96</v>
-      </c>
-      <c r="O148">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>46</v>
       </c>
       <c r="B149" t="s">
         <v>47</v>
       </c>
-      <c r="N149" t="s">
-        <v>96</v>
-      </c>
-      <c r="O149">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
       </c>
-      <c r="N150" t="s">
-        <v>96</v>
-      </c>
-      <c r="O150">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
-      <c r="N151" t="s">
-        <v>97</v>
-      </c>
-      <c r="O151">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>48</v>
       </c>
       <c r="B152" t="s">
         <v>49</v>
       </c>
-      <c r="N152" t="s">
-        <v>96</v>
-      </c>
-      <c r="O152">
-        <v>0.64132606983184803</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>18</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
       </c>
-      <c r="N153" t="s">
-        <v>96</v>
-      </c>
-      <c r="O153">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>50</v>
       </c>
       <c r="B154" t="s">
         <v>51</v>
       </c>
-      <c r="N154" t="s">
-        <v>97</v>
-      </c>
-      <c r="O154">
-        <v>0.54233384132385298</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>52</v>
       </c>
       <c r="B155" t="s">
         <v>53</v>
       </c>
-      <c r="N155" t="s">
-        <v>97</v>
-      </c>
-      <c r="O155">
-        <v>0.53331261873245195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>16</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
       </c>
-      <c r="N156" t="s">
-        <v>96</v>
-      </c>
-      <c r="O156">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>54</v>
       </c>
       <c r="B157" t="s">
         <v>55</v>
       </c>
-      <c r="N157" t="s">
-        <v>96</v>
-      </c>
-      <c r="O157">
-        <v>0.60134857892990101</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>20</v>
       </c>
       <c r="B158" t="s">
         <v>21</v>
       </c>
-      <c r="N158" t="s">
-        <v>96</v>
-      </c>
-      <c r="O158">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>22</v>
       </c>
       <c r="B159" t="s">
         <v>23</v>
       </c>
-      <c r="N159" t="s">
-        <v>96</v>
-      </c>
-      <c r="O159">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
       </c>
-      <c r="N160" t="s">
-        <v>96</v>
-      </c>
-      <c r="O160">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>36</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
       </c>
-      <c r="N161" t="s">
-        <v>97</v>
-      </c>
-      <c r="O161">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N162" t="s">
-        <v>96</v>
-      </c>
-      <c r="O162">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N163" t="s">
-        <v>96</v>
-      </c>
-      <c r="O163">
-        <v>0.64360976219177202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N164" t="s">
-        <v>96</v>
-      </c>
-      <c r="O164">
-        <v>0.60545027256011996</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N165" t="s">
-        <v>97</v>
-      </c>
-      <c r="O165">
-        <v>0.55528020858764604</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N166" t="s">
-        <v>97</v>
-      </c>
-      <c r="O166">
-        <v>0.54172945022582997</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N167" t="s">
-        <v>96</v>
-      </c>
-      <c r="O167">
-        <v>0.65779221057891801</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N168" t="s">
-        <v>97</v>
-      </c>
-      <c r="O168">
-        <v>0.55439400672912598</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N169" t="s">
-        <v>97</v>
-      </c>
-      <c r="O169">
-        <v>0.596086025238037</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N170" t="s">
-        <v>96</v>
-      </c>
-      <c r="O170">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N171" t="s">
-        <v>96</v>
-      </c>
-      <c r="O171">
-        <v>0.694760322570801</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N172" t="s">
-        <v>96</v>
-      </c>
-      <c r="O172">
-        <v>0.63428068161010698</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N173" t="s">
-        <v>96</v>
-      </c>
-      <c r="O173">
-        <v>0.67252403497695901</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N174" t="s">
-        <v>96</v>
-      </c>
-      <c r="O174">
-        <v>0.63824760913848899</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N175" t="s">
-        <v>96</v>
-      </c>
-      <c r="O175">
-        <v>0.66301751136779796</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N176" t="s">
-        <v>96</v>
-      </c>
-      <c r="O176">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N177" t="s">
-        <v>96</v>
-      </c>
-      <c r="O177">
-        <v>0.63428068161010698</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N178" t="s">
-        <v>96</v>
-      </c>
-      <c r="O178">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N179" t="s">
-        <v>96</v>
-      </c>
-      <c r="O179">
-        <v>0.68374711275100697</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N180" t="s">
-        <v>96</v>
-      </c>
-      <c r="O180">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N181" t="s">
-        <v>96</v>
-      </c>
-      <c r="O181">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N182" t="s">
-        <v>96</v>
-      </c>
-      <c r="O182">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N183" t="s">
-        <v>96</v>
-      </c>
-      <c r="O183">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N184" t="s">
-        <v>96</v>
-      </c>
-      <c r="O184">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N185" t="s">
-        <v>96</v>
-      </c>
-      <c r="O185">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N186" t="s">
-        <v>96</v>
-      </c>
-      <c r="O186">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N187" t="s">
-        <v>96</v>
-      </c>
-      <c r="O187">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N188" t="s">
-        <v>97</v>
-      </c>
-      <c r="O188">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N189" t="s">
-        <v>96</v>
-      </c>
-      <c r="O189">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N190" t="s">
-        <v>96</v>
-      </c>
-      <c r="O190">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N191" t="s">
-        <v>96</v>
-      </c>
-      <c r="O191">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N192" t="s">
-        <v>96</v>
-      </c>
-      <c r="O192">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N193" t="s">
-        <v>96</v>
-      </c>
-      <c r="O193">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N194" t="s">
-        <v>96</v>
-      </c>
-      <c r="O194">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N195" t="s">
-        <v>96</v>
-      </c>
-      <c r="O195">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N196" t="s">
-        <v>96</v>
-      </c>
-      <c r="O196">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N197" t="s">
-        <v>96</v>
-      </c>
-      <c r="O197">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N198" t="s">
-        <v>96</v>
-      </c>
-      <c r="O198">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N199" t="s">
-        <v>97</v>
-      </c>
-      <c r="O199">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N200" t="s">
-        <v>97</v>
-      </c>
-      <c r="O200">
-        <v>0.50305032730102495</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N201" t="s">
-        <v>96</v>
-      </c>
-      <c r="O201">
-        <v>0.70169597864151001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N202" t="s">
-        <v>96</v>
-      </c>
-      <c r="O202">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N203" t="s">
-        <v>96</v>
-      </c>
-      <c r="O203">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N204" t="s">
-        <v>96</v>
-      </c>
-      <c r="O204">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N205" t="s">
-        <v>96</v>
-      </c>
-      <c r="O205">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N206" t="s">
-        <v>96</v>
-      </c>
-      <c r="O206">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N207" t="s">
-        <v>96</v>
-      </c>
-      <c r="O207">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N208" t="s">
-        <v>97</v>
-      </c>
-      <c r="O208">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N209" t="s">
-        <v>96</v>
-      </c>
-      <c r="O209">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N210" t="s">
-        <v>96</v>
-      </c>
-      <c r="O210">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N211" t="s">
-        <v>96</v>
-      </c>
-      <c r="O211">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N212" t="s">
-        <v>96</v>
-      </c>
-      <c r="O212">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N213" t="s">
-        <v>96</v>
-      </c>
-      <c r="O213">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N214" t="s">
-        <v>96</v>
-      </c>
-      <c r="O214">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N215" t="s">
-        <v>96</v>
-      </c>
-      <c r="O215">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N216" t="s">
-        <v>96</v>
-      </c>
-      <c r="O216">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N217" t="s">
-        <v>96</v>
-      </c>
-      <c r="O217">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N218" t="s">
-        <v>96</v>
-      </c>
-      <c r="O218">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N219" t="s">
-        <v>97</v>
-      </c>
-      <c r="O219">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N220" t="s">
-        <v>97</v>
-      </c>
-      <c r="O220">
-        <v>0.50305032730102495</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N221" t="s">
-        <v>96</v>
-      </c>
-      <c r="O221">
-        <v>0.70169597864151001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N222" t="s">
-        <v>96</v>
-      </c>
-      <c r="O222">
-        <v>0.69838309288024902</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N223" t="s">
-        <v>96</v>
-      </c>
-      <c r="O223">
-        <v>0.66776043176651001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N224" t="s">
-        <v>96</v>
-      </c>
-      <c r="O224">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N225" t="s">
-        <v>96</v>
-      </c>
-      <c r="O225">
-        <v>0.63085722923278797</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N226" t="s">
-        <v>96</v>
-      </c>
-      <c r="O226">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N227" t="s">
-        <v>96</v>
-      </c>
-      <c r="O227">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N228" t="s">
-        <v>97</v>
-      </c>
-      <c r="O228">
-        <v>0.52301871776580799</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N229" t="s">
-        <v>96</v>
-      </c>
-      <c r="O229">
-        <v>0.65003412961959794</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N230" t="s">
-        <v>96</v>
-      </c>
-      <c r="O230">
-        <v>0.71503293514251698</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N231" t="s">
-        <v>96</v>
-      </c>
-      <c r="O231">
-        <v>0.69133657217025801</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N232" t="s">
-        <v>96</v>
-      </c>
-      <c r="O232">
-        <v>0.680960953235626</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N233" t="s">
-        <v>96</v>
-      </c>
-      <c r="O233">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N234" t="s">
-        <v>96</v>
-      </c>
-      <c r="O234">
-        <v>0.68374705314636197</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N235" t="s">
-        <v>96</v>
-      </c>
-      <c r="O235">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N236" t="s">
-        <v>96</v>
-      </c>
-      <c r="O236">
-        <v>0.70130306482315097</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N237" t="s">
-        <v>96</v>
-      </c>
-      <c r="O237">
-        <v>0.672524273395538</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N238" t="s">
-        <v>96</v>
-      </c>
-      <c r="O238">
-        <v>0.67628812789917003</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N239" t="s">
-        <v>97</v>
-      </c>
-      <c r="O239">
-        <v>0.563853740692139</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="N240" t="s">
-        <v>97</v>
-      </c>
-      <c r="O240">
-        <v>0.50305032730102495</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -4114,12 +2675,6 @@
       <c r="B241" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N241" t="s">
-        <v>96</v>
-      </c>
-      <c r="O241">
-        <v>0.70169597864151001</v>
-      </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -4128,12 +2683,6 @@
       <c r="B242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N242" t="s">
-        <v>96</v>
-      </c>
-      <c r="O242">
-        <v>0.69838309288024902</v>
-      </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
@@ -4142,12 +2691,6 @@
       <c r="B243" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N243" t="s">
-        <v>96</v>
-      </c>
-      <c r="O243">
-        <v>0.66776043176651001</v>
-      </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
@@ -4156,12 +2699,6 @@
       <c r="B244" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N244" t="s">
-        <v>96</v>
-      </c>
-      <c r="O244">
-        <v>0.66110008955001798</v>
-      </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -4170,12 +2707,6 @@
       <c r="B245" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N245" t="s">
-        <v>96</v>
-      </c>
-      <c r="O245">
-        <v>0.63085722923278797</v>
-      </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
@@ -4184,12 +2715,6 @@
       <c r="B246" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N246" t="s">
-        <v>96</v>
-      </c>
-      <c r="O246">
-        <v>0.66110008955001798</v>
-      </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -4198,12 +2723,6 @@
       <c r="B247" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N247" t="s">
-        <v>96</v>
-      </c>
-      <c r="O247">
-        <v>0.71503293514251698</v>
-      </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
@@ -4212,12 +2731,6 @@
       <c r="B248" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N248" t="s">
-        <v>97</v>
-      </c>
-      <c r="O248">
-        <v>0.52301871776580799</v>
-      </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
@@ -4226,12 +2739,6 @@
       <c r="B249" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N249" t="s">
-        <v>96</v>
-      </c>
-      <c r="O249">
-        <v>0.65003412961959794</v>
-      </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
@@ -4240,12 +2747,6 @@
       <c r="B250" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N250" t="s">
-        <v>96</v>
-      </c>
-      <c r="O250">
-        <v>0.71503293514251698</v>
-      </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
@@ -4254,12 +2755,6 @@
       <c r="B251" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N251" t="s">
-        <v>96</v>
-      </c>
-      <c r="O251">
-        <v>0.69133657217025801</v>
-      </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -4268,12 +2763,6 @@
       <c r="B252" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N252" t="s">
-        <v>96</v>
-      </c>
-      <c r="O252">
-        <v>0.680960953235626</v>
-      </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
@@ -4282,12 +2771,6 @@
       <c r="B253" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N253" t="s">
-        <v>96</v>
-      </c>
-      <c r="O253">
-        <v>0.66110008955001798</v>
-      </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
@@ -4296,12 +2779,12 @@
       <c r="B254" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N254" t="s">
-        <v>96</v>
-      </c>
-      <c r="O254">
-        <v>0.68374705314636197</v>
-      </c>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4312,33 +2795,36 @@
           <xm:f>Hoja1!$B$2:$B$254</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{99BFAAE4-D882-438C-AF2C-74891B8B1865}">
-          <xm:f>Hoja1!$N$2</xm:f>
+          <xm:f>Hoja1!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{407158C8-5DE9-4542-B602-86EF75748778}">
           <xm:f>Hoja1!$B2:$B254</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{4D40B1C4-18C7-4A9F-B663-063E96826C6F}">
-          <xm:f>Hoja1!N2</xm:f>
+          <xm:f>Hoja1!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{161D200E-7F36-4ED6-AFEF-5760CEE58533}">
-          <xm:f>Hoja1!N2</xm:f>
+          <xm:f>Hoja1!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{3F3A816E-3F23-41A8-B657-34830891E2A5}">
           <xm:f>Hoja1!$B$2:$B$254</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{216BE386-180B-437F-9599-2BFBD7415982}">
-          <xm:f>Hoja1!N2</xm:f>
+          <xm:f>Hoja1!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{9C464772-0DF7-4DE6-9D90-5A1F5752C576}">
           <xm:f>Hoja1!$B$2:$B$254</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{2E812E6A-455F-4146-B0DE-472D33FE1981}">
-          <xm:f>Hoja1!N2:O255</xm:f>
+          <xm:f>Hoja1!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{81936346-FE3D-427B-A32D-76EB0DFA0C55}">
-          <xm:f>Hoja1!N2:O254</xm:f>
+          <xm:f>Hoja1!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{9EED0E09-5DDE-429F-A9EA-63E6E552F4BF}">
+          <xm:f>Hoja1!B2:B254</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{A104AC1D-FAB9-4E00-98B6-7415347C6C32}">
           <xm:f>Hoja1!B2:B254</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
